--- a/stat.xlsx
+++ b/stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>218.320028017833</v>
+        <v>10.32410745864364</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="G2" t="n">
-        <v>83.14654434068875</v>
+        <v>239.5298981001083</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="I2" t="n">
-        <v>288</v>
+        <v>1276</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="K2" t="n">
-        <v>9.314972078483065</v>
+        <v>90.93697614347884</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M2" t="n">
-        <v>82</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -478,22 +545,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.995617480856058</v>
+        <v>3.722239822455551</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.754053411050973</v>
+        <v>4.10236646635064</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -502,16 +569,16 @@
         <v>69</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.751398859092083</v>
+        <v>5.843503446983231</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>24.25732865107386</v>
+        <v>2.032235805132451</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>14.00437161720098</v>
+        <v>19.81770930536374</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>499</v>
+        <v>414</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>2.265253297589041</v>
+        <v>11.87166210778485</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -564,40 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>211.4376745198633</v>
+        <v>7.806527619235993</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F5" t="n">
+        <v>199</v>
+      </c>
+      <c r="G5" t="n">
+        <v>208.998385651898</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>405</v>
       </c>
-      <c r="F5" t="n">
-        <v>71</v>
-      </c>
-      <c r="G5" t="n">
-        <v>77.30121334681496</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>167</v>
-      </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>8.025537945653239</v>
+        <v>75.8004351926152</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>54</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
@@ -644,6 +711,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>